--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -13,12 +13,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,17 +40,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,21 +122,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -144,9 +151,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,22 +471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,905 +503,922 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>43861</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>43862</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>43863</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>43864</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>43865</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>43866</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>43867</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>43868</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>43869</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>43870</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>43871</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>43872</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>43873</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>43874</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>9</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>43875</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>43876</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>43877</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>43878</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>43879</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>9</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>43880</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>9</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>43881</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>9</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>43882</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
         <v>9</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>43883</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
         <v>9</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>43884</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
         <v>9</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>43885</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>43886</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
         <v>13</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>43887</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
         <v>13</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>43888</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
         <v>13</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>43889</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>19</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>43890</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>23</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>43891</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>12</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>35</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>43892</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>40</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>43893</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>11</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>51</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>43894</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>85</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>43895</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>114</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>43896</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>46</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>160</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>43897</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>46</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>206</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>43898</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>65</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>271</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>43899</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>50</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>321</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>43900</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>52</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>373</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>43901</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>83</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>456</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>43902</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>139</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>590</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>43903</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>207</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>797</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>43904</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>264</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>1061</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>43905</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>330</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>1391</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="8">
         <v>14</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>43906</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>152</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>1543</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="8">
         <v>20</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>43907</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>407</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>1950</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="8">
         <v>16</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>43908</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>676</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>2626</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="8">
         <v>32</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="8">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>43909</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>643</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>3269</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="8">
         <v>41</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="8">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>43910</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>714</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>3983</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="8">
         <v>33</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="8">
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>43911</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>1035</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>5018</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="8">
         <v>56</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="8">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>43912</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>665</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>5683</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="8">
         <v>48</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="8">
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>43913</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>967</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>6650</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="8">
         <v>54</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="8">
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>43914</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>1427</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>8077</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="8">
         <v>87</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="8">
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>43915</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>1452</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>9529</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="8">
         <v>41</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="8">
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>43916</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>2129</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>11658</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="8">
         <v>115</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="8">
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>43917</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>2885</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>14543</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="8">
         <v>181</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="8">
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>43918</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>2546</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>17089</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="8">
         <v>260</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="8">
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>43919</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>2433</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>19522</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="8">
         <v>209</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="8">
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>43920</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>2619</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>22141</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="8">
         <v>180</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="8">
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>43921</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>3009</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>25150</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="8">
         <v>381</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="8">
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>43922</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>4324</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>29474</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="8">
         <v>563</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="8">
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>43923</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>4244</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>33718</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="8">
         <v>569</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="8">
         <v>2921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>43924</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4450</v>
+      </c>
+      <c r="C65" s="2">
+        <v>38168</v>
+      </c>
+      <c r="D65" s="8">
+        <v>684</v>
+      </c>
+      <c r="E65" s="8">
+        <v>3605</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -13,6 +13,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,30 +46,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,21 +115,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -151,15 +144,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 3" xfId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,921 +491,938 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43861</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43862</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43863</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43864</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43865</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43866</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43867</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43868</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43869</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43870</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43871</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43872</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43873</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43874</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43875</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43876</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>9</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43877</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43878</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43879</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43880</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
         <v>9</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>43881</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>43882</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
         <v>9</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>43883</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>43884</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <v>9</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>43885</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>13</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>43886</v>
       </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
         <v>13</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>43887</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
         <v>13</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>43888</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
         <v>13</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>43889</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>19</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>43890</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>23</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>43891</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>12</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>35</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>43892</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>40</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>43893</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>51</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>43894</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>85</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>43895</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>29</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>114</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>43896</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>46</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>160</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>43897</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>46</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>206</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>43898</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>65</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>271</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>43899</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>50</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>321</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>43900</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>52</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>373</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>43901</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>83</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>456</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>43902</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>139</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>590</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43903</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>207</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>797</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43904</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>264</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>1061</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>43905</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>330</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>1391</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="4">
         <v>14</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>43906</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>152</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>1543</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="4">
         <v>20</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>43907</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>407</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>1950</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="4">
         <v>16</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>43908</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>676</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>2626</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="4">
         <v>32</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="4">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>43909</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>643</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>3269</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="4">
         <v>41</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="4">
         <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>43910</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>714</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>3983</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="4">
         <v>33</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="4">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>43911</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="7">
         <v>1035</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>5018</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="4">
         <v>56</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>43912</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="7">
         <v>665</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>5683</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="4">
         <v>48</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="4">
         <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>43913</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="8">
         <v>967</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>6650</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="4">
         <v>54</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="4">
         <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>43914</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="8">
         <v>1427</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>8077</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="4">
         <v>87</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="4">
         <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>43915</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="8">
         <v>1452</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>9529</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="4">
         <v>41</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="4">
         <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>43916</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>2129</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>11658</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="4">
         <v>115</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="4">
         <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>43917</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>2885</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>14543</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="4">
         <v>181</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="4">
         <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>43918</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>2546</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>17089</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="4">
         <v>260</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="4">
         <v>1019</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>43919</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>2433</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>19522</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="4">
         <v>209</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="4">
         <v>1228</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>43920</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>2619</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>22141</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="4">
         <v>180</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="4">
         <v>1408</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>43921</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>3009</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>25150</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="4">
         <v>381</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="4">
         <v>1789</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>43922</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>4324</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>29474</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="4">
         <v>563</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="4">
         <v>2352</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>43923</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>4244</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>33718</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="4">
         <v>569</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="4">
         <v>2921</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>43924</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>4450</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>38168</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="4">
         <v>684</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="4">
         <v>3605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3735</v>
+      </c>
+      <c r="C66" s="3">
+        <v>41903</v>
+      </c>
+      <c r="D66" s="4">
+        <v>708</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4313</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,22 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -503,7 +503,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -516,7 +516,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1423,6 +1423,24 @@
       </c>
       <c r="E66" s="4">
         <v>4313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5914</v>
+      </c>
+      <c r="C67" s="3">
+        <f>C66+B67</f>
+        <v>47817</v>
+      </c>
+      <c r="D67" s="4">
+        <v>621</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4934</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,6 +142,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,14 +1436,30 @@
         <v>5914</v>
       </c>
       <c r="C67" s="3">
-        <f>C66+B67</f>
-        <v>47817</v>
+        <v>47806</v>
       </c>
       <c r="D67" s="4">
         <v>621</v>
       </c>
       <c r="E67" s="4">
         <v>4934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B68" s="6">
+        <v>3802</v>
+      </c>
+      <c r="C68" s="6">
+        <v>51608</v>
+      </c>
+      <c r="D68" s="9">
+        <v>439</v>
+      </c>
+      <c r="E68" s="9">
+        <v>5373</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B117303-FFAA-4F49-B814-7012F4ADFF34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +150,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,23 +464,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E68"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -506,7 +510,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -519,7 +523,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -532,7 +536,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -545,7 +549,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -558,7 +562,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -571,7 +575,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -584,7 +588,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -597,7 +601,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -610,7 +614,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -623,7 +627,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -636,7 +640,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -649,7 +653,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -662,7 +666,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -675,7 +679,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -688,7 +692,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -701,7 +705,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -714,7 +718,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -727,7 +731,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -740,7 +744,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -753,7 +757,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -766,7 +770,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -779,7 +783,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -792,7 +796,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -805,7 +809,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -818,7 +822,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -831,7 +835,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -844,7 +848,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -857,7 +861,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -870,7 +874,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -883,7 +887,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -896,7 +900,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -909,7 +913,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -922,7 +926,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -935,7 +939,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -948,7 +952,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -961,7 +965,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -974,7 +978,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -987,7 +991,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1000,7 +1004,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1028,7 +1032,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1460,6 +1464,25 @@
       </c>
       <c r="E68" s="9">
         <v>5373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B69" s="10">
+        <f>C69-C68</f>
+        <v>3634</v>
+      </c>
+      <c r="C69" s="10">
+        <v>55242</v>
+      </c>
+      <c r="D69" s="10">
+        <f>E69-E68</f>
+        <v>786</v>
+      </c>
+      <c r="E69" s="10">
+        <v>6159</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B117303-FFAA-4F49-B814-7012F4ADFF34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +17,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -121,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,7 +147,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,23 +460,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -510,7 +506,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -523,7 +519,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -536,7 +532,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -549,7 +545,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -562,7 +558,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -575,7 +571,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -588,7 +584,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -601,7 +597,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -614,7 +610,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -627,7 +623,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -640,7 +636,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -653,7 +649,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -666,7 +662,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -679,7 +675,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -692,7 +688,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -705,7 +701,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -718,7 +714,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -731,7 +727,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -744,7 +740,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -757,7 +753,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -770,7 +766,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -783,7 +779,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -796,7 +792,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -809,7 +805,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -822,7 +818,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -835,7 +831,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -848,7 +844,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -861,7 +857,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -874,7 +870,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -887,7 +883,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -900,7 +896,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -913,7 +909,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -926,7 +922,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -939,7 +935,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -952,7 +948,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -965,7 +961,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -978,7 +974,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -991,7 +987,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1004,7 +1000,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1032,7 +1028,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1047,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1060,7 +1056,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1075,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1092,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1109,7 +1105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1211,7 +1207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1245,7 +1241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1330,7 +1326,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1347,7 +1343,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1381,7 +1377,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1415,7 +1411,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1432,7 +1428,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1440,7 +1436,8 @@
         <v>5914</v>
       </c>
       <c r="C67" s="3">
-        <v>47806</v>
+        <f>C66+B67</f>
+        <v>47817</v>
       </c>
       <c r="D67" s="4">
         <v>621</v>
@@ -1449,7 +1446,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1463,25 +1460,23 @@
         <v>439</v>
       </c>
       <c r="E68" s="9">
-        <v>5373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
-      <c r="B69" s="10">
-        <f>C69-C68</f>
+      <c r="B69" s="6">
         <v>3634</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="6">
         <v>55242</v>
       </c>
-      <c r="D69" s="10">
-        <f>E69-E68</f>
+      <c r="D69" s="9">
         <v>786</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="9">
         <v>6159</v>
       </c>
     </row>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1460,7 @@
         <v>439</v>
       </c>
       <c r="E68" s="9">
-        <v>3802</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7907B86-0BBA-1E41-AF0D-C8560A3378D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -67,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,11 +117,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +159,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,23 +481,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -506,7 +527,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -519,7 +540,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -532,7 +553,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -545,7 +566,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -558,7 +579,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -571,7 +592,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -584,7 +605,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -597,7 +618,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -610,7 +631,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -623,7 +644,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -636,7 +657,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -649,7 +670,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -662,7 +683,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -675,7 +696,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -688,7 +709,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -701,7 +722,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -714,7 +735,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -727,7 +748,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -740,7 +761,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -753,7 +774,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -766,7 +787,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -779,7 +800,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -792,7 +813,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -805,7 +826,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -818,7 +839,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -831,7 +852,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -844,7 +865,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -857,7 +878,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -870,7 +891,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -883,7 +904,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -896,7 +917,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -909,7 +930,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -922,7 +943,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -935,7 +956,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -948,7 +969,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -961,7 +982,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -974,7 +995,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -987,7 +1008,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1000,7 +1021,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1015,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1028,7 +1049,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1056,7 +1077,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1088,7 +1109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1105,7 +1126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1139,7 +1160,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1173,7 +1194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1190,7 +1211,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1258,7 +1279,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1292,7 +1313,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1343,7 +1364,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1377,7 +1398,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1394,7 +1415,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1446,7 +1467,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1463,7 +1484,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1478,6 +1499,24 @@
       </c>
       <c r="E69" s="9">
         <v>6159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B70" s="12">
+        <v>5492</v>
+      </c>
+      <c r="C70" s="12">
+        <v>60733</v>
+      </c>
+      <c r="D70" s="10">
+        <v>938</v>
+      </c>
+      <c r="E70" s="11">
+        <f>E69+D70</f>
+        <v>7097</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7907B86-0BBA-1E41-AF0D-C8560A3378D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -70,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,22 +114,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,13 +145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,23 +460,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -527,7 +506,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -540,7 +519,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -553,7 +532,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -566,7 +545,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -579,7 +558,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -592,7 +571,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -605,7 +584,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -618,7 +597,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -631,7 +610,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -644,7 +623,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -657,7 +636,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -670,7 +649,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -683,7 +662,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -696,7 +675,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -709,7 +688,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -722,7 +701,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -735,7 +714,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -748,7 +727,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -761,7 +740,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -774,7 +753,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -787,7 +766,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -800,7 +779,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -813,7 +792,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -826,7 +805,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -839,7 +818,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -852,7 +831,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -865,7 +844,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -878,7 +857,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -891,7 +870,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -904,7 +883,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -917,7 +896,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -930,7 +909,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -943,7 +922,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -956,7 +935,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -969,7 +948,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -982,7 +961,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -995,7 +974,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -1008,7 +987,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1021,7 +1000,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1036,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1049,7 +1028,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1064,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1077,7 +1056,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1092,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1109,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1126,7 +1105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1143,7 +1122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1160,7 +1139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1177,7 +1156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1194,7 +1173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1211,7 +1190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1228,7 +1207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1245,7 +1224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1262,7 +1241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1279,7 +1258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1296,7 +1275,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1313,7 +1292,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1330,7 +1309,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1347,7 +1326,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1364,7 +1343,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1381,7 +1360,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1398,7 +1377,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1415,7 +1394,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1432,7 +1411,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1449,7 +1428,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1457,7 +1436,6 @@
         <v>5914</v>
       </c>
       <c r="C67" s="3">
-        <f>C66+B67</f>
         <v>47817</v>
       </c>
       <c r="D67" s="4">
@@ -1467,7 +1445,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1484,7 +1462,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1501,21 +1479,20 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
-      <c r="B70" s="12">
-        <v>5492</v>
-      </c>
-      <c r="C70" s="12">
+      <c r="B70" s="6">
+        <v>5491</v>
+      </c>
+      <c r="C70" s="6">
         <v>60733</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>938</v>
       </c>
-      <c r="E70" s="11">
-        <f>E69+D70</f>
+      <c r="E70" s="9">
         <v>7097</v>
       </c>
     </row>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +145,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,6 +1499,23 @@
         <v>7097</v>
       </c>
     </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="10">
+        <v>43930</v>
+      </c>
+      <c r="B71" s="6">
+        <v>4344</v>
+      </c>
+      <c r="C71" s="6">
+        <v>65077</v>
+      </c>
+      <c r="D71" s="9">
+        <v>881</v>
+      </c>
+      <c r="E71" s="9">
+        <v>7978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -147,7 +153,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1439,7 +1445,7 @@
         <v>5914</v>
       </c>
       <c r="C67" s="3">
-        <v>47817</v>
+        <v>47806</v>
       </c>
       <c r="D67" s="4">
         <v>621</v>
@@ -1500,7 +1506,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="10">
+      <c r="A71" s="2">
         <v>43930</v>
       </c>
       <c r="B71" s="6">
@@ -1514,6 +1520,23 @@
       </c>
       <c r="E71" s="9">
         <v>7978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B72" s="6">
+        <v>5195</v>
+      </c>
+      <c r="C72" s="6">
+        <v>70272</v>
+      </c>
+      <c r="D72" s="10">
+        <v>980</v>
+      </c>
+      <c r="E72" s="10">
+        <v>8958</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,18 +59,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -124,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,9 +145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -515,7 +506,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -528,7 +519,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -541,7 +532,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -554,7 +545,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -567,7 +558,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -580,7 +571,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -593,7 +584,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -606,7 +597,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -619,7 +610,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -632,7 +623,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -645,7 +636,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -658,7 +649,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -671,7 +662,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -684,7 +675,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -697,7 +688,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -710,7 +701,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -723,7 +714,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -736,7 +727,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -749,7 +740,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -762,7 +753,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -775,7 +766,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -788,7 +779,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -801,7 +792,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -814,7 +805,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -827,7 +818,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -840,7 +831,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -853,7 +844,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -866,7 +857,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -879,7 +870,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -892,7 +883,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -905,7 +896,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -918,7 +909,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -931,7 +922,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -944,7 +935,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -957,7 +948,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -970,7 +961,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -983,7 +974,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -996,7 +987,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1009,7 +1000,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1024,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1037,7 +1028,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1052,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1065,7 +1056,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1080,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1097,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1131,7 +1122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1148,7 +1139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1165,7 +1156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1182,7 +1173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1199,7 +1190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1216,7 +1207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1233,7 +1224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1267,7 +1258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1284,7 +1275,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1301,7 +1292,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1352,7 +1343,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1369,7 +1360,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1386,7 +1377,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1403,7 +1394,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1420,7 +1411,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1437,7 +1428,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1454,7 +1445,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1471,7 +1462,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1488,7 +1479,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1505,7 +1496,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1522,7 +1513,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1532,11 +1523,28 @@
       <c r="C72" s="6">
         <v>70272</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>980</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="9">
         <v>8958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B73" s="6">
+        <v>4624</v>
+      </c>
+      <c r="C73" s="6">
+        <v>74895</v>
+      </c>
+      <c r="D73" s="9">
+        <v>917</v>
+      </c>
+      <c r="E73" s="9">
+        <v>9875</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -506,7 +506,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -519,7 +519,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -532,7 +532,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>8958</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1545,6 +1545,23 @@
       </c>
       <c r="E73" s="9">
         <v>9875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B74" s="6">
+        <v>4450</v>
+      </c>
+      <c r="C74" s="6">
+        <v>79345</v>
+      </c>
+      <c r="D74" s="9">
+        <v>737</v>
+      </c>
+      <c r="E74" s="9">
+        <v>10612</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -461,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -506,7 +506,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -519,7 +519,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -532,7 +532,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>8958</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>9875</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1562,6 +1562,23 @@
       </c>
       <c r="E74" s="9">
         <v>10612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B75" s="6">
+        <v>3543</v>
+      </c>
+      <c r="C75" s="6">
+        <v>82888</v>
+      </c>
+      <c r="D75" s="9">
+        <v>717</v>
+      </c>
+      <c r="E75" s="9">
+        <v>11329</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8E4A7-3529-E445-A88C-9715A0888DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfirmedCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
@@ -67,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,11 +117,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +159,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,23 +481,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E75"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -506,7 +527,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -519,7 +540,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -532,7 +553,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -545,7 +566,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -558,7 +579,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -571,7 +592,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -584,7 +605,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -597,7 +618,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -610,7 +631,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -623,7 +644,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -636,7 +657,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -649,7 +670,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -662,7 +683,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -675,7 +696,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -688,7 +709,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -701,7 +722,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -714,7 +735,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -727,7 +748,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -740,7 +761,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -753,7 +774,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -766,7 +787,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -779,7 +800,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -792,7 +813,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -805,7 +826,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -818,7 +839,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -831,7 +852,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -844,7 +865,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -857,7 +878,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -870,7 +891,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -883,7 +904,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -896,7 +917,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -909,7 +930,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -922,7 +943,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -935,7 +956,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -948,7 +969,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -961,7 +982,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -974,7 +995,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -987,7 +1008,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -1000,7 +1021,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -1015,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -1028,7 +1049,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43902</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -1056,7 +1077,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -1088,7 +1109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -1105,7 +1126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1139,7 +1160,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1173,7 +1194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1190,7 +1211,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1258,7 +1279,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1292,7 +1313,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1343,7 +1364,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1377,7 +1398,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1394,7 +1415,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1445,7 +1466,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1462,7 +1483,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1479,7 +1500,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1496,7 +1517,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1513,7 +1534,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1530,7 +1551,7 @@
         <v>8958</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1547,7 +1568,7 @@
         <v>9875</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1564,7 +1585,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43934</v>
       </c>
@@ -1579,6 +1600,25 @@
       </c>
       <c r="E75" s="9">
         <v>11329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B76" s="10">
+        <v>5252</v>
+      </c>
+      <c r="C76" s="11">
+        <f>C75+B76</f>
+        <v>88140</v>
+      </c>
+      <c r="D76" s="12">
+        <v>778</v>
+      </c>
+      <c r="E76" s="11">
+        <f>E75+D76</f>
+        <v>12107</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8E4A7-3529-E445-A88C-9715A0888DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A58C44-1916-A64A-B886-0C9E46C79855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1607,11 +1607,11 @@
         <v>43935</v>
       </c>
       <c r="B76" s="10">
-        <v>5252</v>
+        <v>4468</v>
       </c>
       <c r="C76" s="11">
         <f>C75+B76</f>
-        <v>88140</v>
+        <v>87356</v>
       </c>
       <c r="D76" s="12">
         <v>778</v>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A58C44-1916-A64A-B886-0C9E46C79855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D2D91-DEE4-9B41-82EE-813E31BC35EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D2D91-DEE4-9B41-82EE-813E31BC35EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4D2E5-C015-184A-A0B7-5C349EB95C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1621,6 +1621,25 @@
         <v>12107</v>
       </c>
     </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B77" s="10">
+        <v>3971</v>
+      </c>
+      <c r="C77" s="11">
+        <f>C76+B77</f>
+        <v>91327</v>
+      </c>
+      <c r="D77" s="12">
+        <v>761</v>
+      </c>
+      <c r="E77" s="11">
+        <f>E76+D77</f>
+        <v>12868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4D2E5-C015-184A-A0B7-5C349EB95C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFFB6F-54AF-2F44-A39C-422AF93E2D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +168,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1593,6 +1594,7 @@
         <v>3543</v>
       </c>
       <c r="C75" s="6">
+        <f>C74+B75</f>
         <v>82888</v>
       </c>
       <c r="D75" s="9">
@@ -1638,6 +1640,25 @@
       <c r="E77" s="11">
         <f>E76+D77</f>
         <v>12868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B78" s="13">
+        <v>3869</v>
+      </c>
+      <c r="C78" s="11">
+        <f>C77+B78</f>
+        <v>95196</v>
+      </c>
+      <c r="D78">
+        <v>861</v>
+      </c>
+      <c r="E78" s="11">
+        <f>E77+D78</f>
+        <v>13729</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFFB6F-54AF-2F44-A39C-422AF93E2D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C989661-930E-8047-A2D2-828B27FDCCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1661,6 +1661,25 @@
         <v>13729</v>
       </c>
     </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B79" s="13">
+        <v>4673</v>
+      </c>
+      <c r="C79" s="11">
+        <f>C78+B79</f>
+        <v>99869</v>
+      </c>
+      <c r="D79">
+        <v>847</v>
+      </c>
+      <c r="E79" s="11">
+        <f>E78+D79</f>
+        <v>14576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C989661-930E-8047-A2D2-828B27FDCCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A47B4-AF50-5542-B5FF-75D7D197675C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1680,6 +1680,25 @@
         <v>14576</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B80" s="13">
+        <v>4399</v>
+      </c>
+      <c r="C80" s="11">
+        <f>C79+B80</f>
+        <v>104268</v>
+      </c>
+      <c r="D80">
+        <v>888</v>
+      </c>
+      <c r="E80" s="11">
+        <f>E79+D80</f>
+        <v>15464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A47B4-AF50-5542-B5FF-75D7D197675C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EB526-6E0E-BC4E-AD67-40DC9EB05783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1594,7 @@
         <v>3543</v>
       </c>
       <c r="C75" s="6">
-        <f>C74+B75</f>
+        <f t="shared" ref="C75:C80" si="0">C74+B75</f>
         <v>82888</v>
       </c>
       <c r="D75" s="9">
@@ -1612,7 +1612,7 @@
         <v>4468</v>
       </c>
       <c r="C76" s="11">
-        <f>C75+B76</f>
+        <f t="shared" si="0"/>
         <v>87356</v>
       </c>
       <c r="D76" s="12">
@@ -1631,7 +1631,7 @@
         <v>3971</v>
       </c>
       <c r="C77" s="11">
-        <f>C76+B77</f>
+        <f t="shared" si="0"/>
         <v>91327</v>
       </c>
       <c r="D77" s="12">
@@ -1650,7 +1650,7 @@
         <v>3869</v>
       </c>
       <c r="C78" s="11">
-        <f>C77+B78</f>
+        <f t="shared" si="0"/>
         <v>95196</v>
       </c>
       <c r="D78">
@@ -1669,7 +1669,7 @@
         <v>4673</v>
       </c>
       <c r="C79" s="11">
-        <f>C78+B79</f>
+        <f t="shared" si="0"/>
         <v>99869</v>
       </c>
       <c r="D79">
@@ -1688,7 +1688,7 @@
         <v>4399</v>
       </c>
       <c r="C80" s="11">
-        <f>C79+B80</f>
+        <f t="shared" si="0"/>
         <v>104268</v>
       </c>
       <c r="D80">
@@ -1697,6 +1697,25 @@
       <c r="E80" s="11">
         <f>E79+D80</f>
         <v>15464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B81" s="13">
+        <v>4467</v>
+      </c>
+      <c r="C81" s="11">
+        <f t="shared" ref="C81" si="1">C80+B81</f>
+        <v>108735</v>
+      </c>
+      <c r="D81">
+        <v>596</v>
+      </c>
+      <c r="E81" s="11">
+        <f>E80+D81</f>
+        <v>16060</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EB526-6E0E-BC4E-AD67-40DC9EB05783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A37BE9-1E77-AA4F-ADC9-B1BB5212F503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,9 +483,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -1718,6 +1718,25 @@
         <v>16060</v>
       </c>
     </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B82" s="13">
+        <v>3023</v>
+      </c>
+      <c r="C82" s="11">
+        <f t="shared" ref="C82" si="2">C81+B82</f>
+        <v>111758</v>
+      </c>
+      <c r="D82">
+        <v>449</v>
+      </c>
+      <c r="E82" s="11">
+        <f>E81+D82</f>
+        <v>16509</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A37BE9-1E77-AA4F-ADC9-B1BB5212F503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40797F73-09FD-2047-9FBD-B521437250ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,6 +1737,25 @@
         <v>16509</v>
       </c>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B83" s="13">
+        <v>3643</v>
+      </c>
+      <c r="C83" s="11">
+        <f t="shared" ref="C83" si="3">C82+B83</f>
+        <v>115401</v>
+      </c>
+      <c r="D83">
+        <v>823</v>
+      </c>
+      <c r="E83" s="11">
+        <f>E82+D83</f>
+        <v>17332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40797F73-09FD-2047-9FBD-B521437250ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDB293-C8F9-2F4C-B5CA-22FF1BE4CC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1756,6 +1756,25 @@
         <v>17332</v>
       </c>
     </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B84" s="13">
+        <v>3776</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" ref="C84" si="4">C83+B84</f>
+        <v>119177</v>
+      </c>
+      <c r="D84">
+        <v>759</v>
+      </c>
+      <c r="E84" s="11">
+        <f>E83+D84</f>
+        <v>18091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDB293-C8F9-2F4C-B5CA-22FF1BE4CC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8083F-9B52-F14E-BADE-784A15AFBE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,13 +53,25 @@
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +181,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -1195,7 +1209,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -1211,8 +1225,10 @@
       <c r="E52" s="4">
         <v>233</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="14"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -1228,8 +1244,10 @@
       <c r="E53" s="4">
         <v>281</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="14"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -1245,8 +1263,10 @@
       <c r="E54" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="14"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -1262,8 +1282,10 @@
       <c r="E55" s="4">
         <v>422</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="14"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -1279,8 +1301,10 @@
       <c r="E56" s="4">
         <v>463</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="14"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -1296,8 +1320,10 @@
       <c r="E57" s="4">
         <v>578</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="14"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -1313,8 +1339,10 @@
       <c r="E58" s="4">
         <v>759</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="14"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -1330,8 +1358,10 @@
       <c r="E59" s="4">
         <v>1019</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="14"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -1347,8 +1377,10 @@
       <c r="E60" s="4">
         <v>1228</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="14"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -1364,8 +1396,10 @@
       <c r="E61" s="4">
         <v>1408</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="14"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -1381,8 +1415,10 @@
       <c r="E62" s="4">
         <v>1789</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="14"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1398,8 +1434,10 @@
       <c r="E63" s="4">
         <v>2352</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="14"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1415,8 +1453,10 @@
       <c r="E64" s="4">
         <v>2921</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="14"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1432,8 +1472,10 @@
       <c r="E65" s="4">
         <v>3605</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="14"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1449,8 +1491,10 @@
       <c r="E66" s="4">
         <v>4313</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="14"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1466,8 +1510,10 @@
       <c r="E67" s="4">
         <v>4934</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="14"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1483,8 +1529,10 @@
       <c r="E68" s="9">
         <v>5373</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="14"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1500,8 +1548,10 @@
       <c r="E69" s="9">
         <v>6159</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="14"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1517,8 +1567,10 @@
       <c r="E70" s="9">
         <v>7097</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="14"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1534,8 +1586,10 @@
       <c r="E71" s="9">
         <v>7978</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="14"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1551,8 +1605,10 @@
       <c r="E72" s="9">
         <v>8958</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="14"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1568,8 +1624,10 @@
       <c r="E73" s="9">
         <v>9875</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="14"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1585,8 +1643,10 @@
       <c r="E74" s="9">
         <v>10612</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="14"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43934</v>
       </c>
@@ -1603,8 +1663,10 @@
       <c r="E75" s="9">
         <v>11329</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="14"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43935</v>
       </c>
@@ -1622,8 +1684,10 @@
         <f>E75+D76</f>
         <v>12107</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="14"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43936</v>
       </c>
@@ -1641,8 +1705,10 @@
         <f>E76+D77</f>
         <v>12868</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="14"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43937</v>
       </c>
@@ -1660,8 +1726,10 @@
         <f>E77+D78</f>
         <v>13729</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="14"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43938</v>
       </c>
@@ -1679,8 +1747,10 @@
         <f>E78+D79</f>
         <v>14576</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="14"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43939</v>
       </c>
@@ -1698,8 +1768,10 @@
         <f>E79+D80</f>
         <v>15464</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="14"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43940</v>
       </c>
@@ -1717,8 +1789,10 @@
         <f>E80+D81</f>
         <v>16060</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="15"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43941</v>
       </c>
@@ -1736,8 +1810,10 @@
         <f>E81+D82</f>
         <v>16509</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="15"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43942</v>
       </c>
@@ -1755,8 +1831,10 @@
         <f>E82+D83</f>
         <v>17332</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="15"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43943</v>
       </c>
@@ -1764,7 +1842,7 @@
         <v>3776</v>
       </c>
       <c r="C84" s="11">
-        <f t="shared" ref="C84" si="4">C83+B84</f>
+        <f t="shared" ref="C84:C85" si="4">C83+B84</f>
         <v>119177</v>
       </c>
       <c r="D84">
@@ -1774,6 +1852,28 @@
         <f>E83+D84</f>
         <v>18091</v>
       </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B85" s="13">
+        <v>3831</v>
+      </c>
+      <c r="C85" s="11">
+        <f t="shared" si="4"/>
+        <v>123008</v>
+      </c>
+      <c r="D85">
+        <v>616</v>
+      </c>
+      <c r="E85" s="11">
+        <f>E84+D85</f>
+        <v>18707</v>
+      </c>
+      <c r="F85" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8083F-9B52-F14E-BADE-784A15AFBE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F553969-D430-D843-A1D3-8001E8C4BA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,7 @@
         <v>761</v>
       </c>
       <c r="E77" s="11">
-        <f>E76+D77</f>
+        <f t="shared" ref="E77:E86" si="1">E76+D77</f>
         <v>12868</v>
       </c>
       <c r="F77" s="14"/>
@@ -1723,7 +1723,7 @@
         <v>861</v>
       </c>
       <c r="E78" s="11">
-        <f>E77+D78</f>
+        <f t="shared" si="1"/>
         <v>13729</v>
       </c>
       <c r="F78" s="14"/>
@@ -1744,7 +1744,7 @@
         <v>847</v>
       </c>
       <c r="E79" s="11">
-        <f>E78+D79</f>
+        <f t="shared" si="1"/>
         <v>14576</v>
       </c>
       <c r="F79" s="14"/>
@@ -1765,7 +1765,7 @@
         <v>888</v>
       </c>
       <c r="E80" s="11">
-        <f>E79+D80</f>
+        <f t="shared" si="1"/>
         <v>15464</v>
       </c>
       <c r="F80" s="14"/>
@@ -1779,14 +1779,14 @@
         <v>4467</v>
       </c>
       <c r="C81" s="11">
-        <f t="shared" ref="C81" si="1">C80+B81</f>
+        <f t="shared" ref="C81" si="2">C80+B81</f>
         <v>108735</v>
       </c>
       <c r="D81">
         <v>596</v>
       </c>
       <c r="E81" s="11">
-        <f>E80+D81</f>
+        <f t="shared" si="1"/>
         <v>16060</v>
       </c>
       <c r="F81" s="15"/>
@@ -1800,14 +1800,14 @@
         <v>3023</v>
       </c>
       <c r="C82" s="11">
-        <f t="shared" ref="C82" si="2">C81+B82</f>
+        <f t="shared" ref="C82" si="3">C81+B82</f>
         <v>111758</v>
       </c>
       <c r="D82">
         <v>449</v>
       </c>
       <c r="E82" s="11">
-        <f>E81+D82</f>
+        <f t="shared" si="1"/>
         <v>16509</v>
       </c>
       <c r="F82" s="15"/>
@@ -1821,14 +1821,14 @@
         <v>3643</v>
       </c>
       <c r="C83" s="11">
-        <f t="shared" ref="C83" si="3">C82+B83</f>
+        <f t="shared" ref="C83" si="4">C82+B83</f>
         <v>115401</v>
       </c>
       <c r="D83">
         <v>823</v>
       </c>
       <c r="E83" s="11">
-        <f>E82+D83</f>
+        <f t="shared" si="1"/>
         <v>17332</v>
       </c>
       <c r="F83" s="15"/>
@@ -1842,14 +1842,14 @@
         <v>3776</v>
       </c>
       <c r="C84" s="11">
-        <f t="shared" ref="C84:C85" si="4">C83+B84</f>
+        <f t="shared" ref="C84:C86" si="5">C83+B84</f>
         <v>119177</v>
       </c>
       <c r="D84">
         <v>759</v>
       </c>
       <c r="E84" s="11">
-        <f>E83+D84</f>
+        <f t="shared" si="1"/>
         <v>18091</v>
       </c>
       <c r="F84" s="15"/>
@@ -1863,17 +1863,36 @@
         <v>3831</v>
       </c>
       <c r="C85" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123008</v>
       </c>
       <c r="D85">
         <v>616</v>
       </c>
       <c r="E85" s="11">
-        <f>E84+D85</f>
+        <f t="shared" si="1"/>
         <v>18707</v>
       </c>
       <c r="F85" s="15"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B86" s="13">
+        <v>3641</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="5"/>
+        <v>126649</v>
+      </c>
+      <c r="D86">
+        <v>684</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="1"/>
+        <v>19391</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F553969-D430-D843-A1D3-8001E8C4BA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F48D99-9B84-AE46-A097-0AB8AAEF00AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1883,15 +1883,34 @@
         <v>3641</v>
       </c>
       <c r="C86" s="11">
-        <f t="shared" si="5"/>
+        <f>C85+B86</f>
         <v>126649</v>
       </c>
       <c r="D86">
         <v>684</v>
       </c>
       <c r="E86" s="11">
-        <f t="shared" si="1"/>
+        <f>E85+D86</f>
         <v>19391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B87" s="13">
+        <v>3583</v>
+      </c>
+      <c r="C87" s="11">
+        <f>C86+B87</f>
+        <v>130232</v>
+      </c>
+      <c r="D87">
+        <v>813</v>
+      </c>
+      <c r="E87" s="11">
+        <f>E86+D87</f>
+        <v>20204</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F48D99-9B84-AE46-A097-0AB8AAEF00AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200E0AC-250D-F443-A8B9-F1650CF96B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1913,6 +1913,25 @@
         <v>20204</v>
       </c>
     </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B88" s="13">
+        <v>2685</v>
+      </c>
+      <c r="C88" s="11">
+        <f>C87+B88</f>
+        <v>132917</v>
+      </c>
+      <c r="D88">
+        <v>413</v>
+      </c>
+      <c r="E88" s="11">
+        <f>E87+D88</f>
+        <v>20617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200E0AC-250D-F443-A8B9-F1650CF96B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AEEF2-051B-4C4C-8B2C-1268050B1FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -144,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +189,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1932,6 +1940,25 @@
         <v>20617</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B89" s="16">
+        <v>2730</v>
+      </c>
+      <c r="C89" s="11">
+        <f>C88+B89</f>
+        <v>135647</v>
+      </c>
+      <c r="D89" s="17">
+        <v>360</v>
+      </c>
+      <c r="E89" s="11">
+        <f>E88+D89</f>
+        <v>20977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AEEF2-051B-4C4C-8B2C-1268050B1FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451E9C3-39A7-414E-A396-E093D325954D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1959,6 +1959,25 @@
         <v>20977</v>
       </c>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B90" s="16">
+        <v>2455</v>
+      </c>
+      <c r="C90" s="11">
+        <f>C89+B90</f>
+        <v>138102</v>
+      </c>
+      <c r="D90" s="17">
+        <v>586</v>
+      </c>
+      <c r="E90" s="11">
+        <f>E89+D90</f>
+        <v>21563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451E9C3-39A7-414E-A396-E093D325954D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A0B2C2-D76C-B04A-9651-896366D7BE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -150,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +196,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1978,6 +1986,25 @@
         <v>21563</v>
       </c>
     </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B91" s="16">
+        <v>1888</v>
+      </c>
+      <c r="C91" s="11">
+        <f>C90+B91</f>
+        <v>139990</v>
+      </c>
+      <c r="D91" s="18">
+        <v>578</v>
+      </c>
+      <c r="E91" s="11">
+        <f>E90+D91</f>
+        <v>22141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A0B2C2-D76C-B04A-9651-896366D7BE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E42173-2CD8-2048-8023-6E8771812532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2005,6 +2005,25 @@
         <v>22141</v>
       </c>
     </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B92" s="13">
+        <v>3059</v>
+      </c>
+      <c r="C92" s="11">
+        <f>C91+B92</f>
+        <v>143049</v>
+      </c>
+      <c r="D92">
+        <v>674</v>
+      </c>
+      <c r="E92" s="11">
+        <f>E91+D92</f>
+        <v>22815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E42173-2CD8-2048-8023-6E8771812532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2E3CD5-85EB-4F48-B6CD-9F9388ECDE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,6 +2024,25 @@
         <v>22815</v>
       </c>
     </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B93" s="13">
+        <v>3049</v>
+      </c>
+      <c r="C93" s="11">
+        <f>C92+B93</f>
+        <v>146098</v>
+      </c>
+      <c r="D93">
+        <v>739</v>
+      </c>
+      <c r="E93" s="11">
+        <f>E92+D93</f>
+        <v>23554</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2E3CD5-85EB-4F48-B6CD-9F9388ECDE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C8609-3E5C-5248-A921-C3886531AA9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
@@ -2043,6 +2043,25 @@
         <v>23554</v>
       </c>
     </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B94" s="16">
+        <v>2750</v>
+      </c>
+      <c r="C94" s="11">
+        <f>C93+B94</f>
+        <v>148848</v>
+      </c>
+      <c r="D94" s="17">
+        <v>621</v>
+      </c>
+      <c r="E94" s="11">
+        <f>E93+D94</f>
+        <v>24175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C8609-3E5C-5248-A921-C3886531AA9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EF08E0-92DC-C448-AD2C-37454A033C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B94" s="16">
         <v>2750</v>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EF08E0-92DC-C448-AD2C-37454A033C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0B060C-DB47-8246-8A44-290BC2CA896A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1718,7 @@
         <v>761</v>
       </c>
       <c r="E77" s="11">
-        <f t="shared" ref="E77:E86" si="1">E76+D77</f>
+        <f t="shared" ref="E77:E85" si="1">E76+D77</f>
         <v>12868</v>
       </c>
       <c r="F77" s="14"/>
@@ -1858,7 +1858,7 @@
         <v>3776</v>
       </c>
       <c r="C84" s="11">
-        <f t="shared" ref="C84:C86" si="5">C83+B84</f>
+        <f t="shared" ref="C84:C85" si="5">C83+B84</f>
         <v>119177</v>
       </c>
       <c r="D84">
@@ -1899,14 +1899,14 @@
         <v>3641</v>
       </c>
       <c r="C86" s="11">
-        <f>C85+B86</f>
+        <f t="shared" ref="C86:C94" si="6">C85+B86</f>
         <v>126649</v>
       </c>
       <c r="D86">
         <v>684</v>
       </c>
       <c r="E86" s="11">
-        <f>E85+D86</f>
+        <f t="shared" ref="E86:E94" si="7">E85+D86</f>
         <v>19391</v>
       </c>
     </row>
@@ -1918,14 +1918,14 @@
         <v>3583</v>
       </c>
       <c r="C87" s="11">
-        <f>C86+B87</f>
+        <f t="shared" si="6"/>
         <v>130232</v>
       </c>
       <c r="D87">
         <v>813</v>
       </c>
       <c r="E87" s="11">
-        <f>E86+D87</f>
+        <f t="shared" si="7"/>
         <v>20204</v>
       </c>
     </row>
@@ -1937,14 +1937,14 @@
         <v>2685</v>
       </c>
       <c r="C88" s="11">
-        <f>C87+B88</f>
+        <f t="shared" si="6"/>
         <v>132917</v>
       </c>
       <c r="D88">
         <v>413</v>
       </c>
       <c r="E88" s="11">
-        <f>E87+D88</f>
+        <f t="shared" si="7"/>
         <v>20617</v>
       </c>
     </row>
@@ -1956,14 +1956,14 @@
         <v>2730</v>
       </c>
       <c r="C89" s="11">
-        <f>C88+B89</f>
+        <f t="shared" si="6"/>
         <v>135647</v>
       </c>
       <c r="D89" s="17">
         <v>360</v>
       </c>
       <c r="E89" s="11">
-        <f>E88+D89</f>
+        <f t="shared" si="7"/>
         <v>20977</v>
       </c>
     </row>
@@ -1975,14 +1975,14 @@
         <v>2455</v>
       </c>
       <c r="C90" s="11">
-        <f>C89+B90</f>
+        <f t="shared" si="6"/>
         <v>138102</v>
       </c>
       <c r="D90" s="17">
         <v>586</v>
       </c>
       <c r="E90" s="11">
-        <f>E89+D90</f>
+        <f t="shared" si="7"/>
         <v>21563</v>
       </c>
     </row>
@@ -1994,14 +1994,14 @@
         <v>1888</v>
       </c>
       <c r="C91" s="11">
-        <f>C90+B91</f>
+        <f t="shared" si="6"/>
         <v>139990</v>
       </c>
       <c r="D91" s="18">
         <v>578</v>
       </c>
       <c r="E91" s="11">
-        <f>E90+D91</f>
+        <f t="shared" si="7"/>
         <v>22141</v>
       </c>
     </row>
@@ -2013,14 +2013,14 @@
         <v>3059</v>
       </c>
       <c r="C92" s="11">
-        <f>C91+B92</f>
+        <f t="shared" si="6"/>
         <v>143049</v>
       </c>
       <c r="D92">
         <v>674</v>
       </c>
       <c r="E92" s="11">
-        <f>E91+D92</f>
+        <f t="shared" si="7"/>
         <v>22815</v>
       </c>
     </row>
@@ -2032,14 +2032,14 @@
         <v>3049</v>
       </c>
       <c r="C93" s="11">
-        <f>C92+B93</f>
+        <f t="shared" si="6"/>
         <v>146098</v>
       </c>
       <c r="D93">
         <v>739</v>
       </c>
       <c r="E93" s="11">
-        <f>E92+D93</f>
+        <f t="shared" si="7"/>
         <v>23554</v>
       </c>
     </row>
@@ -2051,15 +2051,34 @@
         <v>2750</v>
       </c>
       <c r="C94" s="11">
-        <f>C93+B94</f>
+        <f t="shared" si="6"/>
         <v>148848</v>
       </c>
       <c r="D94" s="17">
         <v>621</v>
       </c>
       <c r="E94" s="11">
-        <f>E93+D94</f>
+        <f t="shared" si="7"/>
         <v>24175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B95" s="16">
+        <v>2441</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" ref="C95" si="8">C94+B95</f>
+        <v>151289</v>
+      </c>
+      <c r="D95" s="17">
+        <v>315</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" ref="E95" si="9">E94+D95</f>
+        <v>24490</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0B060C-DB47-8246-8A44-290BC2CA896A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930042D-B5FD-AA45-B374-C46D9FFAAAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <numFmt numFmtId="164" formatCode="???,??0"/>
     <numFmt numFmtId="165" formatCode="??,??0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,11 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +204,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2081,6 +2087,25 @@
         <v>24490</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B96" s="16">
+        <v>1918</v>
+      </c>
+      <c r="C96" s="11">
+        <f t="shared" ref="C96" si="10">C95+B96</f>
+        <v>153207</v>
+      </c>
+      <c r="D96" s="19">
+        <v>288</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" ref="E96" si="11">E95+D96</f>
+        <v>24778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930042D-B5FD-AA45-B374-C46D9FFAAAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9705DE-3BFF-C846-9594-9B366A493D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2106,6 +2106,25 @@
         <v>24778</v>
       </c>
     </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B97" s="16">
+        <v>2203</v>
+      </c>
+      <c r="C97" s="11">
+        <f t="shared" ref="C97" si="12">C96+B97</f>
+        <v>155410</v>
+      </c>
+      <c r="D97" s="17">
+        <v>693</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" ref="E97" si="13">E96+D97</f>
+        <v>25471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9705DE-3BFF-C846-9594-9B366A493D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A1EC5-FB7D-EF41-8193-BA4586B0945B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2125,6 +2125,25 @@
         <v>25471</v>
       </c>
     </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B98" s="16">
+        <v>2031</v>
+      </c>
+      <c r="C98" s="11">
+        <f t="shared" ref="C98" si="14">C97+B98</f>
+        <v>157441</v>
+      </c>
+      <c r="D98">
+        <v>649</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" ref="E98" si="15">E97+D98</f>
+        <v>26120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A1EC5-FB7D-EF41-8193-BA4586B0945B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECE01EB-D7C4-E44D-B3E7-2CF9B81F2CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2144,6 +2144,25 @@
         <v>26120</v>
       </c>
     </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B99" s="16">
+        <v>2485</v>
+      </c>
+      <c r="C99" s="11">
+        <f t="shared" ref="C99" si="16">C98+B99</f>
+        <v>159926</v>
+      </c>
+      <c r="D99" s="17">
+        <v>539</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" ref="E99" si="17">E98+D99</f>
+        <v>26659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECE01EB-D7C4-E44D-B3E7-2CF9B81F2CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E44A4C-F17D-3143-9026-B8EA1876FD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +205,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="D100" sqref="D100:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2163,6 +2164,44 @@
         <v>26659</v>
       </c>
     </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B100" s="20">
+        <v>2109</v>
+      </c>
+      <c r="C100" s="11">
+        <f t="shared" ref="C100:C101" si="18">C99+B100</f>
+        <v>162035</v>
+      </c>
+      <c r="D100" s="20">
+        <v>626</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" ref="E100:E101" si="19">E99+D100</f>
+        <v>27285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B101" s="20">
+        <v>1679</v>
+      </c>
+      <c r="C101" s="11">
+        <f t="shared" si="18"/>
+        <v>163714</v>
+      </c>
+      <c r="D101" s="20">
+        <v>346</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" si="19"/>
+        <v>27631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E44A4C-F17D-3143-9026-B8EA1876FD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A29A9-E66E-0F4C-95E9-D4B928EC3820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:D101"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2202,6 +2202,25 @@
         <v>27631</v>
       </c>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B102" s="20">
+        <v>1452</v>
+      </c>
+      <c r="C102" s="11">
+        <f t="shared" ref="C102" si="20">C101+B102</f>
+        <v>165166</v>
+      </c>
+      <c r="D102">
+        <v>269</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" ref="E102" si="21">E101+D102</f>
+        <v>27900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,6 +1402,17 @@
         <v>627</v>
       </c>
     </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B105">
+        <v>1505</v>
+      </c>
+      <c r="C105">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinfrankschultz/dev/covid19-curves/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB7CE92-A8AA-F348-95F0-68EF290A7A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +102,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +188,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +240,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,14 +433,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -409,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -417,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -425,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -433,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -441,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -449,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -457,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -465,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -473,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -481,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -489,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -497,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -505,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -513,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -521,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -529,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -537,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -545,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -553,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -561,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -569,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -577,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -585,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -593,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -601,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -609,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -617,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -625,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -633,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -641,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -649,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -657,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -665,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -673,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -681,7 +736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -689,7 +744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -697,7 +752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -705,7 +760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -713,7 +768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -721,7 +776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -729,7 +784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43902</v>
       </c>
@@ -737,7 +792,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -745,7 +800,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -753,7 +808,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -764,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -775,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -786,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -797,7 +852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -808,7 +863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -819,7 +874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -830,7 +885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -841,7 +896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -852,7 +907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -863,7 +918,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -874,7 +929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -885,7 +940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -896,7 +951,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -907,7 +962,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -918,7 +973,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -929,7 +984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -940,7 +995,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -951,7 +1006,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -962,7 +1017,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -984,7 +1039,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -995,7 +1050,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1006,7 +1061,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1017,7 +1072,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1028,7 +1083,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1039,7 +1094,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1050,7 +1105,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1061,7 +1116,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1072,7 +1127,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43934</v>
       </c>
@@ -1083,7 +1138,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43935</v>
       </c>
@@ -1094,7 +1149,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43936</v>
       </c>
@@ -1105,7 +1160,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43937</v>
       </c>
@@ -1116,7 +1171,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43938</v>
       </c>
@@ -1127,7 +1182,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43939</v>
       </c>
@@ -1138,7 +1193,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43940</v>
       </c>
@@ -1149,7 +1204,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43941</v>
       </c>
@@ -1160,7 +1215,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43942</v>
       </c>
@@ -1171,7 +1226,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43943</v>
       </c>
@@ -1182,7 +1237,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43944</v>
       </c>
@@ -1193,7 +1248,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43945</v>
       </c>
@@ -1204,7 +1259,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43946</v>
       </c>
@@ -1215,7 +1270,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43947</v>
       </c>
@@ -1226,7 +1281,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43948</v>
       </c>
@@ -1237,7 +1292,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43949</v>
       </c>
@@ -1248,7 +1303,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43950</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43951</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43952</v>
       </c>
@@ -1281,7 +1336,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43953</v>
       </c>
@@ -1292,7 +1347,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43954</v>
       </c>
@@ -1303,7 +1358,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43955</v>
       </c>
@@ -1314,7 +1369,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43956</v>
       </c>
@@ -1325,7 +1380,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43957</v>
       </c>
@@ -1336,7 +1391,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43958</v>
       </c>
@@ -1347,7 +1402,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43959</v>
       </c>
@@ -1358,7 +1413,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43960</v>
       </c>
@@ -1369,7 +1424,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43961</v>
       </c>
@@ -1380,7 +1435,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43962</v>
       </c>
@@ -1391,7 +1446,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43963</v>
       </c>
@@ -1402,7 +1457,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43964</v>
       </c>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinfrankschultz/dev/covid19-curves/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB7CE92-A8AA-F348-95F0-68EF290A7A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +96,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,27 +174,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,24 +208,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,19 +383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -464,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -472,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -480,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -488,7 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -496,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -504,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -512,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -520,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -528,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -536,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -544,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -552,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -560,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -568,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -576,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -584,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -592,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -600,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -608,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -616,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -624,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -632,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -640,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -648,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -656,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -664,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -672,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -680,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -688,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -696,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -704,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -712,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -720,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -728,7 +673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -736,7 +681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -744,7 +689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -752,7 +697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -760,7 +705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -768,7 +713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -776,7 +721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -784,7 +729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43902</v>
       </c>
@@ -792,7 +737,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -800,7 +745,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -808,7 +753,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -819,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -830,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -841,7 +786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -852,7 +797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -863,7 +808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -874,7 +819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -885,7 +830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -896,7 +841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -907,7 +852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -918,7 +863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -929,7 +874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -940,7 +885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -951,7 +896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -962,7 +907,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -973,7 +918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -984,7 +929,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -995,7 +940,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -1006,7 +951,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -1017,7 +962,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1028,7 +973,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1039,7 +984,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1050,7 +995,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1061,7 +1006,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1072,7 +1017,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1083,7 +1028,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1094,7 +1039,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1105,7 +1050,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1116,7 +1061,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1127,7 +1072,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>43934</v>
       </c>
@@ -1138,7 +1083,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>43935</v>
       </c>
@@ -1149,7 +1094,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>43936</v>
       </c>
@@ -1160,7 +1105,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>43937</v>
       </c>
@@ -1171,7 +1116,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>43938</v>
       </c>
@@ -1182,7 +1127,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>43939</v>
       </c>
@@ -1193,7 +1138,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>43940</v>
       </c>
@@ -1204,7 +1149,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>43941</v>
       </c>
@@ -1215,7 +1160,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>43942</v>
       </c>
@@ -1226,7 +1171,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>43943</v>
       </c>
@@ -1237,7 +1182,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>43944</v>
       </c>
@@ -1248,7 +1193,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>43945</v>
       </c>
@@ -1259,7 +1204,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>43946</v>
       </c>
@@ -1270,7 +1215,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>43947</v>
       </c>
@@ -1281,7 +1226,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>43948</v>
       </c>
@@ -1292,7 +1237,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>43949</v>
       </c>
@@ -1303,7 +1248,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>43950</v>
       </c>
@@ -1314,7 +1259,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>43951</v>
       </c>
@@ -1325,7 +1270,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>43952</v>
       </c>
@@ -1336,7 +1281,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>43953</v>
       </c>
@@ -1347,7 +1292,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>43954</v>
       </c>
@@ -1358,7 +1303,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>43955</v>
       </c>
@@ -1369,7 +1314,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>43956</v>
       </c>
@@ -1380,7 +1325,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>43957</v>
       </c>
@@ -1391,7 +1336,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>43958</v>
       </c>
@@ -1402,7 +1347,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>43959</v>
       </c>
@@ -1413,7 +1358,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>43960</v>
       </c>
@@ -1424,7 +1369,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>43961</v>
       </c>
@@ -1435,7 +1380,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>43962</v>
       </c>
@@ -1446,7 +1391,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>43963</v>
       </c>
@@ -1457,7 +1402,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>43964</v>
       </c>
@@ -1466,6 +1411,17 @@
       </c>
       <c r="C105">
         <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B106">
+        <v>1543</v>
+      </c>
+      <c r="C106">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinfrankschultz/dev/covid19-curves/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378D01A-84D1-0149-8E77-4F2E199029AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,11 +44,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,10 +59,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,18 +102,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -383,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113:F117"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -409,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -417,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -425,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -433,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -441,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -449,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -457,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -465,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -473,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -481,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -489,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -497,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -505,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -513,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -521,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -529,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -537,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -545,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -553,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -561,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -569,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -577,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -585,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -593,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -601,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -609,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -617,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -625,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -633,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -641,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -649,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -657,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -665,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -673,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -681,7 +718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -689,7 +726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -697,7 +734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -705,7 +742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -713,7 +750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -721,7 +758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -729,7 +766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43902</v>
       </c>
@@ -737,7 +774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -745,7 +782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -753,7 +790,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -764,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -775,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -786,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -797,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -808,7 +845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -819,7 +856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -830,7 +867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -841,7 +878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -852,7 +889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -863,7 +900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -874,7 +911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -885,7 +922,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -896,7 +933,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -907,7 +944,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -918,7 +955,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -929,7 +966,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -940,7 +977,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -951,7 +988,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -962,7 +999,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -973,7 +1010,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -984,7 +1021,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -995,7 +1032,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1006,7 +1043,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1017,7 +1054,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1028,7 +1065,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1039,7 +1076,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1050,7 +1087,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1061,7 +1098,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1072,7 +1109,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43934</v>
       </c>
@@ -1083,7 +1120,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43935</v>
       </c>
@@ -1094,7 +1131,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43936</v>
       </c>
@@ -1105,7 +1142,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43937</v>
       </c>
@@ -1116,7 +1153,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43938</v>
       </c>
@@ -1127,7 +1164,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43939</v>
       </c>
@@ -1138,7 +1175,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43940</v>
       </c>
@@ -1149,7 +1186,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43941</v>
       </c>
@@ -1160,7 +1197,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43942</v>
       </c>
@@ -1171,7 +1208,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43943</v>
       </c>
@@ -1182,7 +1219,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43944</v>
       </c>
@@ -1193,7 +1230,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43945</v>
       </c>
@@ -1204,7 +1241,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43946</v>
       </c>
@@ -1215,7 +1252,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43947</v>
       </c>
@@ -1226,7 +1263,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43948</v>
       </c>
@@ -1237,7 +1274,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43949</v>
       </c>
@@ -1248,7 +1285,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43950</v>
       </c>
@@ -1259,7 +1296,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43951</v>
       </c>
@@ -1270,7 +1307,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43952</v>
       </c>
@@ -1281,7 +1318,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43953</v>
       </c>
@@ -1292,7 +1329,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43954</v>
       </c>
@@ -1303,7 +1340,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43955</v>
       </c>
@@ -1314,7 +1351,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43956</v>
       </c>
@@ -1325,7 +1362,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43957</v>
       </c>
@@ -1336,7 +1373,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43958</v>
       </c>
@@ -1347,7 +1384,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43959</v>
       </c>
@@ -1358,7 +1395,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43960</v>
       </c>
@@ -1369,7 +1406,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43961</v>
       </c>
@@ -1380,7 +1417,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43962</v>
       </c>
@@ -1391,7 +1428,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43963</v>
       </c>
@@ -1402,7 +1439,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43964</v>
       </c>
@@ -1413,7 +1450,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43965</v>
       </c>
@@ -1424,7 +1461,135 @@
         <v>428</v>
       </c>
     </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B107">
+        <v>1407</v>
+      </c>
+      <c r="C107">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B108">
+        <v>1546</v>
+      </c>
+      <c r="C108">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B109">
+        <v>1040</v>
+      </c>
+      <c r="C109">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B110">
+        <v>990</v>
+      </c>
+      <c r="C110">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B111">
+        <v>1104</v>
+      </c>
+      <c r="C111">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B112">
+        <v>1048</v>
+      </c>
+      <c r="C112">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B113">
+        <v>1167</v>
+      </c>
+      <c r="C113">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B114">
+        <v>1357</v>
+      </c>
+      <c r="C114">
+        <v>351</v>
+      </c>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B115">
+        <v>1263</v>
+      </c>
+      <c r="C115">
+        <v>282</v>
+      </c>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B116">
+        <v>1029</v>
+      </c>
+      <c r="C116">
+        <v>118</v>
+      </c>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B117">
+        <v>694</v>
+      </c>
+      <c r="C117">
+        <v>121</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinfrankschultz/dev/covid19-curves/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378D01A-84D1-0149-8E77-4F2E199029AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -44,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,12 +43,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,32 +84,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -415,19 +383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113:F117"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
@@ -446,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43862</v>
       </c>
@@ -454,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43863</v>
       </c>
@@ -462,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43864</v>
       </c>
@@ -470,7 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43865</v>
       </c>
@@ -478,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43866</v>
       </c>
@@ -486,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43867</v>
       </c>
@@ -494,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43868</v>
       </c>
@@ -502,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43869</v>
       </c>
@@ -510,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43870</v>
       </c>
@@ -518,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43871</v>
       </c>
@@ -526,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43872</v>
       </c>
@@ -534,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43873</v>
       </c>
@@ -542,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43874</v>
       </c>
@@ -550,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43875</v>
       </c>
@@ -558,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43876</v>
       </c>
@@ -566,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43877</v>
       </c>
@@ -574,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43878</v>
       </c>
@@ -582,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43879</v>
       </c>
@@ -590,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43880</v>
       </c>
@@ -598,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43881</v>
       </c>
@@ -606,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43882</v>
       </c>
@@ -614,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43883</v>
       </c>
@@ -622,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43884</v>
       </c>
@@ -630,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43885</v>
       </c>
@@ -638,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43886</v>
       </c>
@@ -646,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43887</v>
       </c>
@@ -654,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43888</v>
       </c>
@@ -662,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43889</v>
       </c>
@@ -670,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
@@ -678,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -686,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43892</v>
       </c>
@@ -694,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43893</v>
       </c>
@@ -702,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43894</v>
       </c>
@@ -710,7 +673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43895</v>
       </c>
@@ -718,7 +681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43896</v>
       </c>
@@ -726,7 +689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43897</v>
       </c>
@@ -734,7 +697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43898</v>
       </c>
@@ -742,7 +705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43899</v>
       </c>
@@ -750,7 +713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43900</v>
       </c>
@@ -758,7 +721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43901</v>
       </c>
@@ -766,7 +729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43902</v>
       </c>
@@ -774,7 +737,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43903</v>
       </c>
@@ -782,7 +745,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43904</v>
       </c>
@@ -790,7 +753,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43905</v>
       </c>
@@ -801,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43906</v>
       </c>
@@ -812,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43907</v>
       </c>
@@ -823,7 +786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43908</v>
       </c>
@@ -834,7 +797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43909</v>
       </c>
@@ -845,7 +808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>43910</v>
       </c>
@@ -856,7 +819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>43911</v>
       </c>
@@ -867,7 +830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>43912</v>
       </c>
@@ -878,7 +841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>43913</v>
       </c>
@@ -889,7 +852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>43914</v>
       </c>
@@ -900,7 +863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>43915</v>
       </c>
@@ -911,7 +874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>43916</v>
       </c>
@@ -922,7 +885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>43917</v>
       </c>
@@ -933,7 +896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>43918</v>
       </c>
@@ -944,7 +907,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>43919</v>
       </c>
@@ -955,7 +918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>43920</v>
       </c>
@@ -966,7 +929,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
@@ -977,7 +940,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>43922</v>
       </c>
@@ -988,7 +951,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>43923</v>
       </c>
@@ -999,7 +962,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>43924</v>
       </c>
@@ -1010,7 +973,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>43925</v>
       </c>
@@ -1021,7 +984,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>43926</v>
       </c>
@@ -1032,7 +995,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>43927</v>
       </c>
@@ -1043,7 +1006,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>43928</v>
       </c>
@@ -1054,7 +1017,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>43929</v>
       </c>
@@ -1065,7 +1028,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>43930</v>
       </c>
@@ -1076,7 +1039,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>43931</v>
       </c>
@@ -1087,7 +1050,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>43932</v>
       </c>
@@ -1098,7 +1061,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>43933</v>
       </c>
@@ -1109,7 +1072,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>43934</v>
       </c>
@@ -1120,7 +1083,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>43935</v>
       </c>
@@ -1131,7 +1094,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>43936</v>
       </c>
@@ -1142,7 +1105,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>43937</v>
       </c>
@@ -1153,7 +1116,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>43938</v>
       </c>
@@ -1164,7 +1127,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>43939</v>
       </c>
@@ -1175,7 +1138,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>43940</v>
       </c>
@@ -1186,7 +1149,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>43941</v>
       </c>
@@ -1197,7 +1160,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>43942</v>
       </c>
@@ -1208,7 +1171,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>43943</v>
       </c>
@@ -1219,7 +1182,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>43944</v>
       </c>
@@ -1230,7 +1193,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>43945</v>
       </c>
@@ -1241,7 +1204,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>43946</v>
       </c>
@@ -1252,7 +1215,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>43947</v>
       </c>
@@ -1263,7 +1226,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>43948</v>
       </c>
@@ -1274,7 +1237,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>43949</v>
       </c>
@@ -1285,7 +1248,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>43950</v>
       </c>
@@ -1296,7 +1259,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>43951</v>
       </c>
@@ -1307,7 +1270,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>43952</v>
       </c>
@@ -1318,7 +1281,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>43953</v>
       </c>
@@ -1329,7 +1292,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>43954</v>
       </c>
@@ -1340,7 +1303,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>43955</v>
       </c>
@@ -1351,7 +1314,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>43956</v>
       </c>
@@ -1362,7 +1325,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>43957</v>
       </c>
@@ -1373,7 +1336,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>43958</v>
       </c>
@@ -1384,7 +1347,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>43959</v>
       </c>
@@ -1395,7 +1358,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>43960</v>
       </c>
@@ -1406,7 +1369,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>43961</v>
       </c>
@@ -1417,7 +1380,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>43962</v>
       </c>
@@ -1428,7 +1391,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>43963</v>
       </c>
@@ -1439,7 +1402,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>43964</v>
       </c>
@@ -1450,7 +1413,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>43965</v>
       </c>
@@ -1461,7 +1424,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>43966</v>
       </c>
@@ -1472,7 +1435,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>43967</v>
       </c>
@@ -1483,7 +1446,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>43968</v>
       </c>
@@ -1494,7 +1457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>43969</v>
       </c>
@@ -1505,7 +1468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>43970</v>
       </c>
@@ -1516,7 +1479,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>43971</v>
       </c>
@@ -1527,7 +1490,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>43972</v>
       </c>
@@ -1538,7 +1501,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>43973</v>
       </c>
@@ -1548,9 +1511,8 @@
       <c r="C114">
         <v>351</v>
       </c>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>43974</v>
       </c>
@@ -1560,9 +1522,8 @@
       <c r="C115">
         <v>282</v>
       </c>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>43975</v>
       </c>
@@ -1572,9 +1533,8 @@
       <c r="C116">
         <v>118</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>43976</v>
       </c>
@@ -1584,12 +1544,74 @@
       <c r="C117">
         <v>121</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D118" s="4"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B118">
+        <v>690</v>
+      </c>
+      <c r="C118">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B119">
+        <v>787</v>
+      </c>
+      <c r="C119">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B120">
+        <v>655</v>
+      </c>
+      <c r="C120">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B121">
+        <v>718</v>
+      </c>
+      <c r="C121">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B122">
+        <v>869</v>
+      </c>
+      <c r="C122">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B123">
+        <v>427</v>
+      </c>
+      <c r="C123">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,6 +688,9 @@
       <c r="B37">
         <v>46</v>
       </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
@@ -696,6 +699,9 @@
       <c r="B38">
         <v>46</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
@@ -704,6 +710,9 @@
       <c r="B39">
         <v>65</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
@@ -712,6 +721,9 @@
       <c r="B40">
         <v>50</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
@@ -720,6 +732,9 @@
       <c r="B41">
         <v>52</v>
       </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
@@ -728,13 +743,19 @@
       <c r="B42">
         <v>83</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43902</v>
       </c>
       <c r="B43">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -744,6 +765,9 @@
       <c r="B44">
         <v>207</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
@@ -752,6 +776,9 @@
       <c r="B45">
         <v>264</v>
       </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
@@ -772,7 +799,7 @@
         <v>152</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -783,7 +810,7 @@
         <v>407</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -794,7 +821,7 @@
         <v>676</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -805,7 +832,7 @@
         <v>643</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -816,7 +843,7 @@
         <v>714</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -838,7 +865,7 @@
         <v>665</v>
       </c>
       <c r="C53">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -849,7 +876,7 @@
         <v>967</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -860,7 +887,7 @@
         <v>1427</v>
       </c>
       <c r="C55">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -871,7 +898,7 @@
         <v>1452</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -882,7 +909,7 @@
         <v>2129</v>
       </c>
       <c r="C57">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -890,10 +917,10 @@
         <v>43917</v>
       </c>
       <c r="B58">
-        <v>2885</v>
+        <v>2890</v>
       </c>
       <c r="C58">
-        <v>181</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -901,10 +928,10 @@
         <v>43918</v>
       </c>
       <c r="B59">
-        <v>2546</v>
+        <v>2556</v>
       </c>
       <c r="C59">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -912,10 +939,10 @@
         <v>43919</v>
       </c>
       <c r="B60">
-        <v>2433</v>
+        <v>2502</v>
       </c>
       <c r="C60">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -923,10 +950,10 @@
         <v>43920</v>
       </c>
       <c r="B61">
-        <v>2619</v>
+        <v>2665</v>
       </c>
       <c r="C61">
-        <v>180</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -934,10 +961,10 @@
         <v>43921</v>
       </c>
       <c r="B62">
-        <v>3009</v>
+        <v>3250</v>
       </c>
       <c r="C62">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -945,10 +972,10 @@
         <v>43922</v>
       </c>
       <c r="B63">
-        <v>4324</v>
+        <v>4567</v>
       </c>
       <c r="C63">
-        <v>563</v>
+        <v>670</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -956,10 +983,10 @@
         <v>43923</v>
       </c>
       <c r="B64">
-        <v>4244</v>
+        <v>4522</v>
       </c>
       <c r="C64">
-        <v>569</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -967,10 +994,10 @@
         <v>43924</v>
       </c>
       <c r="B65">
-        <v>4450</v>
+        <v>4672</v>
       </c>
       <c r="C65">
-        <v>684</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -978,10 +1005,10 @@
         <v>43925</v>
       </c>
       <c r="B66">
-        <v>3735</v>
+        <v>4000</v>
       </c>
       <c r="C66">
-        <v>708</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -989,10 +1016,10 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>5914</v>
+        <v>6199</v>
       </c>
       <c r="C67">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1000,10 +1027,10 @@
         <v>43927</v>
       </c>
       <c r="B68">
-        <v>3802</v>
+        <v>4143</v>
       </c>
       <c r="C68">
-        <v>439</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1011,10 +1038,10 @@
         <v>43928</v>
       </c>
       <c r="B69">
-        <v>3634</v>
+        <v>3888</v>
       </c>
       <c r="C69">
-        <v>786</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1022,10 +1049,10 @@
         <v>43929</v>
       </c>
       <c r="B70">
-        <v>5491</v>
+        <v>5865</v>
       </c>
       <c r="C70">
-        <v>938</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1033,10 +1060,10 @@
         <v>43930</v>
       </c>
       <c r="B71">
-        <v>4344</v>
+        <v>4675</v>
       </c>
       <c r="C71">
-        <v>881</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1044,10 +1071,10 @@
         <v>43931</v>
       </c>
       <c r="B72">
-        <v>5195</v>
+        <v>5706</v>
       </c>
       <c r="C72">
-        <v>980</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1055,10 +1082,10 @@
         <v>43932</v>
       </c>
       <c r="B73">
-        <v>4624</v>
+        <v>5234</v>
       </c>
       <c r="C73">
-        <v>917</v>
+        <v>840</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1066,10 +1093,10 @@
         <v>43933</v>
       </c>
       <c r="B74">
-        <v>4450</v>
+        <v>5288</v>
       </c>
       <c r="C74">
-        <v>737</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1077,10 +1104,10 @@
         <v>43934</v>
       </c>
       <c r="B75">
-        <v>3543</v>
+        <v>4342</v>
       </c>
       <c r="C75">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1088,10 +1115,10 @@
         <v>43935</v>
       </c>
       <c r="B76">
-        <v>4468</v>
+        <v>5252</v>
       </c>
       <c r="C76">
-        <v>778</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1099,10 +1126,10 @@
         <v>43936</v>
       </c>
       <c r="B77">
-        <v>3971</v>
+        <v>4605</v>
       </c>
       <c r="C77">
-        <v>761</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1110,10 +1137,10 @@
         <v>43937</v>
       </c>
       <c r="B78">
-        <v>3869</v>
+        <v>4618</v>
       </c>
       <c r="C78">
-        <v>861</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1121,10 +1148,10 @@
         <v>43938</v>
       </c>
       <c r="B79">
-        <v>4673</v>
+        <v>5599</v>
       </c>
       <c r="C79">
-        <v>847</v>
+        <v>936</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1132,10 +1159,10 @@
         <v>43939</v>
       </c>
       <c r="B80">
-        <v>4399</v>
+        <v>5526</v>
       </c>
       <c r="C80">
-        <v>888</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1143,10 +1170,10 @@
         <v>43940</v>
       </c>
       <c r="B81">
-        <v>4467</v>
+        <v>5850</v>
       </c>
       <c r="C81">
-        <v>596</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1154,10 +1181,10 @@
         <v>43941</v>
       </c>
       <c r="B82">
-        <v>3023</v>
+        <v>4676</v>
       </c>
       <c r="C82">
-        <v>449</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1165,10 +1192,10 @@
         <v>43942</v>
       </c>
       <c r="B83">
-        <v>3643</v>
+        <v>4301</v>
       </c>
       <c r="C83">
-        <v>823</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1176,10 +1203,10 @@
         <v>43943</v>
       </c>
       <c r="B84">
-        <v>3776</v>
+        <v>4451</v>
       </c>
       <c r="C84">
-        <v>759</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1187,10 +1214,10 @@
         <v>43944</v>
       </c>
       <c r="B85">
-        <v>3831</v>
+        <v>4583</v>
       </c>
       <c r="C85">
-        <v>616</v>
+        <v>727</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1198,10 +1225,10 @@
         <v>43945</v>
       </c>
       <c r="B86">
-        <v>3641</v>
+        <v>5386</v>
       </c>
       <c r="C86">
-        <v>684</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1209,10 +1236,10 @@
         <v>43946</v>
       </c>
       <c r="B87">
-        <v>3583</v>
+        <v>4913</v>
       </c>
       <c r="C87">
-        <v>813</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1220,10 +1247,10 @@
         <v>43947</v>
       </c>
       <c r="B88">
-        <v>2685</v>
+        <v>4463</v>
       </c>
       <c r="C88">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1231,10 +1258,10 @@
         <v>43948</v>
       </c>
       <c r="B89">
-        <v>2730</v>
+        <v>4310</v>
       </c>
       <c r="C89">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1242,10 +1269,10 @@
         <v>43949</v>
       </c>
       <c r="B90">
-        <v>2455</v>
+        <v>3996</v>
       </c>
       <c r="C90">
-        <v>586</v>
+        <v>911</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1253,10 +1280,10 @@
         <v>43950</v>
       </c>
       <c r="B91">
-        <v>1888</v>
+        <v>4076</v>
       </c>
       <c r="C91">
-        <v>578</v>
+        <v>795</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1264,7 +1291,7 @@
         <v>43951</v>
       </c>
       <c r="B92">
-        <v>3059</v>
+        <v>6032</v>
       </c>
       <c r="C92">
         <v>674</v>
@@ -1275,10 +1302,10 @@
         <v>43952</v>
       </c>
       <c r="B93">
-        <v>3049</v>
+        <v>6201</v>
       </c>
       <c r="C93">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1286,7 +1313,7 @@
         <v>43953</v>
       </c>
       <c r="B94">
-        <v>2750</v>
+        <v>4806</v>
       </c>
       <c r="C94">
         <v>621</v>
@@ -1297,7 +1324,7 @@
         <v>43954</v>
       </c>
       <c r="B95">
-        <v>2441</v>
+        <v>4339</v>
       </c>
       <c r="C95">
         <v>315</v>
@@ -1308,7 +1335,7 @@
         <v>43955</v>
       </c>
       <c r="B96">
-        <v>1918</v>
+        <v>3985</v>
       </c>
       <c r="C96">
         <v>288</v>
@@ -1319,10 +1346,10 @@
         <v>43956</v>
       </c>
       <c r="B97">
-        <v>2203</v>
+        <v>4406</v>
       </c>
       <c r="C97">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1330,10 +1357,10 @@
         <v>43957</v>
       </c>
       <c r="B98">
-        <v>2031</v>
+        <v>6111</v>
       </c>
       <c r="C98">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1341,10 +1368,10 @@
         <v>43958</v>
       </c>
       <c r="B99">
-        <v>2485</v>
+        <v>5614</v>
       </c>
       <c r="C99">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1352,10 +1379,10 @@
         <v>43959</v>
       </c>
       <c r="B100">
-        <v>2109</v>
+        <v>4649</v>
       </c>
       <c r="C100">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1363,10 +1390,10 @@
         <v>43960</v>
       </c>
       <c r="B101">
-        <v>1679</v>
+        <v>3896</v>
       </c>
       <c r="C101">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1374,7 +1401,7 @@
         <v>43961</v>
       </c>
       <c r="B102">
-        <v>1452</v>
+        <v>3923</v>
       </c>
       <c r="C102">
         <v>269</v>
@@ -1385,10 +1412,10 @@
         <v>43962</v>
       </c>
       <c r="B103">
-        <v>1186</v>
+        <v>3877</v>
       </c>
       <c r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1396,10 +1423,10 @@
         <v>43963</v>
       </c>
       <c r="B104">
-        <v>1352</v>
+        <v>3403</v>
       </c>
       <c r="C104">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1407,10 +1434,10 @@
         <v>43964</v>
       </c>
       <c r="B105">
-        <v>1505</v>
+        <v>3242</v>
       </c>
       <c r="C105">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1418,7 +1445,7 @@
         <v>43965</v>
       </c>
       <c r="B106">
-        <v>1543</v>
+        <v>3446</v>
       </c>
       <c r="C106">
         <v>428</v>
@@ -1429,7 +1456,7 @@
         <v>43966</v>
       </c>
       <c r="B107">
-        <v>1407</v>
+        <v>3560</v>
       </c>
       <c r="C107">
         <v>384</v>
@@ -1440,10 +1467,10 @@
         <v>43967</v>
       </c>
       <c r="B108">
-        <v>1546</v>
+        <v>3451</v>
       </c>
       <c r="C108">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1451,7 +1478,7 @@
         <v>43968</v>
       </c>
       <c r="B109">
-        <v>1040</v>
+        <v>3562</v>
       </c>
       <c r="C109">
         <v>170</v>
@@ -1462,7 +1489,7 @@
         <v>43969</v>
       </c>
       <c r="B110">
-        <v>990</v>
+        <v>2684</v>
       </c>
       <c r="C110">
         <v>160</v>
@@ -1473,10 +1500,10 @@
         <v>43970</v>
       </c>
       <c r="B111">
-        <v>1104</v>
+        <v>2412</v>
       </c>
       <c r="C111">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1484,10 +1511,10 @@
         <v>43971</v>
       </c>
       <c r="B112">
-        <v>1048</v>
+        <v>2472</v>
       </c>
       <c r="C112">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1495,7 +1522,7 @@
         <v>43972</v>
       </c>
       <c r="B113">
-        <v>1167</v>
+        <v>2615</v>
       </c>
       <c r="C113">
         <v>338</v>
@@ -1506,10 +1533,10 @@
         <v>43973</v>
       </c>
       <c r="B114">
-        <v>1357</v>
+        <v>3287</v>
       </c>
       <c r="C114">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1517,10 +1544,10 @@
         <v>43974</v>
       </c>
       <c r="B115">
-        <v>1263</v>
+        <v>2959</v>
       </c>
       <c r="C115">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1528,10 +1555,10 @@
         <v>43975</v>
       </c>
       <c r="B116">
-        <v>1029</v>
+        <v>2409</v>
       </c>
       <c r="C116">
-        <v>118</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1539,10 +1566,10 @@
         <v>43976</v>
       </c>
       <c r="B117">
-        <v>694</v>
+        <v>1625</v>
       </c>
       <c r="C117">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1550,10 +1577,10 @@
         <v>43977</v>
       </c>
       <c r="B118">
-        <v>690</v>
+        <v>2004</v>
       </c>
       <c r="C118">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1561,10 +1588,10 @@
         <v>43978</v>
       </c>
       <c r="B119">
-        <v>787</v>
+        <v>2013</v>
       </c>
       <c r="C119">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1572,10 +1599,10 @@
         <v>43979</v>
       </c>
       <c r="B120">
-        <v>655</v>
+        <v>1887</v>
       </c>
       <c r="C120">
-        <v>377</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1583,10 +1610,10 @@
         <v>43980</v>
       </c>
       <c r="B121">
-        <v>718</v>
+        <v>2095</v>
       </c>
       <c r="C121">
-        <v>324</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1594,10 +1621,10 @@
         <v>43981</v>
       </c>
       <c r="B122">
-        <v>869</v>
+        <v>2445</v>
       </c>
       <c r="C122">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1605,10 +1632,483 @@
         <v>43982</v>
       </c>
       <c r="B123">
-        <v>427</v>
+        <v>1936</v>
       </c>
       <c r="C123">
-        <v>113</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B124">
+        <v>1570</v>
+      </c>
+      <c r="C124">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B125">
+        <v>1613</v>
+      </c>
+      <c r="C125">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B126">
+        <v>1871</v>
+      </c>
+      <c r="C126">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B127">
+        <v>1805</v>
+      </c>
+      <c r="C127">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B128">
+        <v>1650</v>
+      </c>
+      <c r="C128">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B129">
+        <v>1557</v>
+      </c>
+      <c r="C129">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B130">
+        <v>1326</v>
+      </c>
+      <c r="C130">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B131">
+        <v>1205</v>
+      </c>
+      <c r="C131">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B132">
+        <v>1387</v>
+      </c>
+      <c r="C132">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B133">
+        <v>1003</v>
+      </c>
+      <c r="C133">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B134">
+        <v>1266</v>
+      </c>
+      <c r="C134">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B135">
+        <v>1541</v>
+      </c>
+      <c r="C135">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B136">
+        <v>1425</v>
+      </c>
+      <c r="C136">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B137">
+        <v>1514</v>
+      </c>
+      <c r="C137">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B138">
+        <v>1056</v>
+      </c>
+      <c r="C138">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B139">
+        <v>1279</v>
+      </c>
+      <c r="C139">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B140">
+        <v>1115</v>
+      </c>
+      <c r="C140">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B141">
+        <v>1218</v>
+      </c>
+      <c r="C141">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B142">
+        <v>1346</v>
+      </c>
+      <c r="C142">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B143">
+        <v>1295</v>
+      </c>
+      <c r="C143">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B144">
+        <v>1221</v>
+      </c>
+      <c r="C144">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B145">
+        <v>958</v>
+      </c>
+      <c r="C145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B146">
+        <v>874</v>
+      </c>
+      <c r="C146">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B147">
+        <v>653</v>
+      </c>
+      <c r="C147">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B148">
+        <v>1118</v>
+      </c>
+      <c r="C148">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B149">
+        <v>1006</v>
+      </c>
+      <c r="C149">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B150">
+        <v>890</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B151">
+        <v>901</v>
+      </c>
+      <c r="C151">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B152">
+        <v>815</v>
+      </c>
+      <c r="C152">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B153">
+        <v>689</v>
+      </c>
+      <c r="C153">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B154">
+        <v>829</v>
+      </c>
+      <c r="C154">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B155">
+        <v>576</v>
+      </c>
+      <c r="C155">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B156">
+        <v>544</v>
+      </c>
+      <c r="C156">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B157">
+        <v>624</v>
+      </c>
+      <c r="C157">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B158">
+        <v>516</v>
+      </c>
+      <c r="C158">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B159">
+        <v>352</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B160">
+        <v>581</v>
+      </c>
+      <c r="C160">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B161">
+        <v>630</v>
+      </c>
+      <c r="C161">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B162">
+        <v>642</v>
+      </c>
+      <c r="C162">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B163">
+        <v>512</v>
+      </c>
+      <c r="C163">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B164">
+        <v>820</v>
+      </c>
+      <c r="C164">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B165">
+        <v>650</v>
+      </c>
+      <c r="C165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B166">
+        <v>530</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2111,6 +2111,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B167">
+        <v>398</v>
+      </c>
+      <c r="C167">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,6 +2122,17 @@
         <v>138</v>
       </c>
     </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B168">
+        <v>538</v>
+      </c>
+      <c r="C168">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,6 +2165,19 @@
         <v>66</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B170" t="n">
+        <v>687</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,6 +2178,19 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B171" t="n">
+        <v>827</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2191,6 +2191,19 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B172" t="n">
+        <v>726</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2204,6 +2204,19 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B173" t="n">
+        <v>580</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,6 +2217,19 @@
         </is>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B174" t="n">
+        <v>445</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2230,6 +2230,19 @@
         </is>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B175" t="n">
+        <v>560</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2243,6 +2243,19 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B176" t="n">
+        <v>769</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2256,6 +2256,19 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B177" t="n">
+        <v>768</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,6 +2269,19 @@
         </is>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B178" t="n">
+        <v>767</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2282,6 +2282,19 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B179" t="n">
+        <v>747</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,6 +2295,19 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B180" t="n">
+        <v>685</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,6 +2308,19 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B181" t="n">
+        <v>581</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,6 +2321,19 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B182" t="n">
+        <v>763</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2334,6 +2334,19 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B183" t="n">
+        <v>846</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,6 +2347,19 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B184" t="n">
+        <v>880</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,6 +2360,19 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B185" t="n">
+        <v>771</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,6 +2373,19 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B186" t="n">
+        <v>744</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2386,6 +2386,19 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44046</v>
+      </c>
+      <c r="B187" t="n">
+        <v>938</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,6 +2399,19 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44047</v>
+      </c>
+      <c r="B188" t="n">
+        <v>670</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2412,6 +2412,19 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44048</v>
+      </c>
+      <c r="B189" t="n">
+        <v>892</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,6 +2425,19 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44049</v>
+      </c>
+      <c r="B190" t="n">
+        <v>950</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2438,6 +2438,19 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44050</v>
+      </c>
+      <c r="B191" t="n">
+        <v>871</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2451,6 +2451,19 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44051</v>
+      </c>
+      <c r="B192" t="n">
+        <v>758</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,6 +2464,19 @@
         </is>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2477,6 +2477,19 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44053</v>
+      </c>
+      <c r="B194" t="n">
+        <v>816</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2490,6 +2490,19 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44054</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1148</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,6 +2503,17 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C196" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,6 +2514,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44056</v>
+      </c>
+      <c r="B197" t="n">
+        <v>184444</v>
+      </c>
+      <c r="C197" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,6 +2525,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44057</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C198" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2536,6 +2536,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44058</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1077</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,6 +2547,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44059</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2558,6 +2558,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44060</v>
+      </c>
+      <c r="B201" t="n">
+        <v>713</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2569,6 +2569,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44061</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2580,6 +2580,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44062</v>
+      </c>
+      <c r="B203" t="n">
+        <v>812</v>
+      </c>
+      <c r="C203" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/DailyConfirmedCases.xlsx
+++ b/data/DailyConfirmedCases.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2591,6 +2591,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44063</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
